--- a/data/dividends_info_20260203.xlsx
+++ b/data/dividends_info_20260203.xlsx
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5.979000091552734</v>
+        <v>6.039999961853027</v>
       </c>
       <c r="I2" t="n">
-        <v>3.177788879254848</v>
+        <v>3.145695384105755</v>
       </c>
       <c r="J2" t="n">
         <v>104</v>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>24.10000038146973</v>
+        <v>23.81500053405762</v>
       </c>
       <c r="I4" t="n">
-        <v>0.373443977491387</v>
+        <v>0.3779130715168023</v>
       </c>
       <c r="J4" t="n">
         <v>48</v>
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>58.20000076293945</v>
+        <v>58.25</v>
       </c>
       <c r="I5" t="n">
-        <v>1.116838473331957</v>
+        <v>1.11587982832618</v>
       </c>
       <c r="J5" t="n">
         <v>20</v>
@@ -763,10 +763,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.238999992609024</v>
+        <v>0.2370000034570694</v>
       </c>
       <c r="I7" t="n">
-        <v>25.1046032868097</v>
+        <v>25.3164553269167</v>
       </c>
       <c r="J7" t="n">
         <v>-1</v>
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9.317999839782715</v>
+        <v>9.352999687194824</v>
       </c>
       <c r="I8" t="n">
-        <v>2.468340888116643</v>
+        <v>2.459104113035443</v>
       </c>
       <c r="J8" t="n">
         <v>-15</v>
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5.76200008392334</v>
+        <v>5.788000106811523</v>
       </c>
       <c r="I9" t="n">
-        <v>2.096494242286568</v>
+        <v>2.087076671920553</v>
       </c>
       <c r="J9" t="n">
         <v>-15</v>
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>25.14999961853027</v>
+        <v>25.10000038146973</v>
       </c>
       <c r="I10" t="n">
-        <v>2.862823105052896</v>
+        <v>2.868525852818495</v>
       </c>
       <c r="J10" t="n">
         <v>-25</v>
@@ -2417,7 +2417,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Leonardo S.p.A.</t>
+          <t>SAIPEM S.p.A.</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2434,7 +2434,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Industrie De Nora S.p.A.</t>
+          <t>Leonardo S.p.A.</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2451,7 +2451,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SAIPEM S.p.A.</t>
+          <t>Industrie De Nora S.p.A.</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2468,7 +2468,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Ferretti S.p.A.</t>
+          <t>Farmacosmo S.p.A.</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2478,14 +2478,14 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Farmacosmo S.p.A.</t>
+          <t>Ferretti S.p.A.</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Poste Italiane S.p.A.</t>
+          <t>doValue S.p.A.</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2648,14 +2648,14 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Stellantis N.V.</t>
+          <t>Prysmian S.p.A.</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2665,14 +2665,14 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Stellantis N.V.</t>
+          <t>Pozzi Milano S.p.A.</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2682,14 +2682,14 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>doValue S.p.A.</t>
+          <t>Poste Italiane S.p.A.</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2699,14 +2699,14 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Prysmian S.p.A.</t>
+          <t>JUVENTUS F.C. S.p.A.</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2716,14 +2716,14 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Half Year Report</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Pozzi Milano S.p.A.</t>
+          <t>OSAI Automation System S.p.A.</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2733,14 +2733,14 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Annual General Meeting</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>OSAI Automation System S.p.A.</t>
+          <t>IGD SIIQ S.p.A.</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2750,14 +2750,14 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Annual General Meeting</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Intesa Sanpaolo S.p.A.</t>
+          <t>I.CO.P. S.p.A. Società Benefit</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2774,7 +2774,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Dedem S.p.A.</t>
+          <t>Esprinet S.p.A.</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2784,14 +2784,14 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>JUVENTUS F.C. S.p.A.</t>
+          <t>Eni S.p.A.</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2801,14 +2801,14 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Half Year Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>Dedem S.p.A.</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2818,14 +2818,14 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Eni S.p.A.</t>
+          <t>Stellantis N.V.</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2842,7 +2842,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>I.CO.P. S.p.A. Società Benefit</t>
+          <t>Intesa Sanpaolo S.p.A.</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2859,7 +2859,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>IGD SIIQ S.p.A.</t>
+          <t>Stellantis N.V.</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2876,7 +2876,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SOGEFI S.p.A.</t>
+          <t>Reti S.p.A.</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2893,7 +2893,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Reti S.p.A.</t>
+          <t>Renovalo S.p.A.</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2903,14 +2903,14 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Renovalo S.p.A.</t>
+          <t>OSAI Automation System S.p.A.</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2920,14 +2920,14 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Annual General Meeting</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>OSAI Automation System S.p.A.</t>
+          <t>I GRANDI VIAGGI S.p.A.</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2944,7 +2944,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>I GRANDI VIAGGI S.p.A.</t>
+          <t>Autostrade Meridionali S.p.A.</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -2954,14 +2954,14 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Annual General Meeting</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Autostrade Meridionali S.p.A.</t>
+          <t>TXT E-SOLUTIONS S.p.A.</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -2971,14 +2971,14 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>TXT E-SOLUTIONS S.p.A.</t>
+          <t>SOGEFI S.p.A.</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2988,7 +2988,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -3046,7 +3046,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Ariston Holding N.V.</t>
+          <t>Lottomatica Group S.p.A.</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3056,14 +3056,14 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Ariston Holding N.V.</t>
+          <t>Kruso Kapital S.p.A.</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3073,14 +3073,14 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Banco BPM S.p.A.</t>
+          <t>FinecoBank S.p.A.</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3097,7 +3097,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>FinecoBank S.p.A.</t>
+          <t>Italgas S.p.A.</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3114,7 +3114,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Italgas S.p.A.</t>
+          <t>Ariston Holding N.V.</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3124,14 +3124,14 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Kruso Kapital S.p.A.</t>
+          <t>Ariston Holding N.V.</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3148,7 +3148,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Lottomatica Group S.p.A.</t>
+          <t>Banco BPM S.p.A.</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3158,14 +3158,14 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Snam S.p.A.</t>
+          <t>Italgas S.p.A.</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3175,14 +3175,14 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Nexi S.p.A.</t>
+          <t>Snam S.p.A.</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3199,7 +3199,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>INTERCOS S.p.A.</t>
+          <t>Nexi S.p.A.</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3209,14 +3209,14 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>MAIRE S.p.A.</t>
+          <t>Masi Agricola S.p.A.</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -3226,14 +3226,14 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>AMPLIFON S.p.A.</t>
+          <t>MAIRE S.p.A.</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -3250,7 +3250,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>AMPLIFON S.p.A.</t>
+          <t>MAIRE S.p.A.</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3267,7 +3267,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Banca Generali S.p.A.</t>
+          <t>INTERCOS S.p.A.</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -3284,7 +3284,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Davide Campari-Milano N.V.</t>
+          <t>FinecoBank S.p.A.</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3318,7 +3318,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Masi Agricola S.p.A.</t>
+          <t>Davide Campari-Milano N.V.</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -3328,14 +3328,14 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>INTERCOS S.p.A.</t>
+          <t>AMPLIFON S.p.A.</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -3345,14 +3345,14 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>FinecoBank S.p.A.</t>
+          <t>AMPLIFON S.p.A.</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3362,14 +3362,14 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>MAIRE S.p.A.</t>
+          <t>INTERCOS S.p.A.</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3379,14 +3379,14 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Italgas S.p.A.</t>
+          <t>Banca Generali S.p.A.</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3396,14 +3396,14 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Snam S.p.A.</t>
+          <t>ASCOPIAVE S.p.A.</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3420,7 +3420,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ITALMOBILIARE S.p.A.</t>
+          <t>ASCOPIAVE S.p.A.</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3437,7 +3437,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Generalfinance S.p.A.</t>
+          <t>ITALMOBILIARE S.p.A.</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3454,7 +3454,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>EUROCOMMERCIAL PROPERTIES N.V.</t>
+          <t>Tinexta S.p.A.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3464,14 +3464,14 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>AZIMUT HOLDING S.p.A.</t>
+          <t>Snam S.p.A.</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3481,14 +3481,14 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ASCOPIAVE S.p.A.</t>
+          <t>PIAGGIO &amp; C. S.p.A.</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3505,7 +3505,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ASCOPIAVE S.p.A.</t>
+          <t>PIAGGIO &amp; C. S.p.A.</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3522,7 +3522,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
+          <t>Nexi S.p.A.</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3532,14 +3532,14 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Nexi S.p.A.</t>
+          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3549,14 +3549,14 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>PIAGGIO &amp; C. S.p.A.</t>
+          <t>Generalfinance S.p.A.</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3573,7 +3573,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>PIAGGIO &amp; C. S.p.A.</t>
+          <t>EUROCOMMERCIAL PROPERTIES N.V.</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -3583,14 +3583,14 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Tinexta S.p.A.</t>
+          <t>AZIMUT HOLDING S.p.A.</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3615,93 +3615,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>stock_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ticker</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>detachment_date</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>payment_date</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>last_close</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>dividend</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>currency</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ratio</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>miss_days</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>is_opportunity</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Intesa Sanpaolo S.p.A.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2026-05-18 00:00:00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="n">
-        <v>104</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -3712,304 +3633,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Stock</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ASCOPIAVE S.p.A.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2026-03-05</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ASCOPIAVE S.p.A.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2026-03-05</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AZIMUT HOLDING S.p.A.</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2026-03-05</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>BFF Bank S.P.A.</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2026-02-10</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Banca Profilo S.p.A.</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Dedem S.p.A.</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>EUROCOMMERCIAL PROPERTIES N.V.</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2026-03-05</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Generalfinance S.p.A.</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2026-03-05</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>I.CO.P. S.p.A. Società Benefit</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>ITALMOBILIARE S.p.A.</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2026-03-05</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2026-03-05</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Nexi S.p.A.</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2026-03-05</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>PIAGGIO &amp; C. S.p.A.</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2026-03-05</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>PIAGGIO &amp; C. S.p.A.</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2026-03-05</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Snam S.p.A.</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2026-03-05</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Tinexta S.p.A.</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2026-03-05</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/dividends_info_20260203.xlsx
+++ b/data/dividends_info_20260203.xlsx
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6.039999961853027</v>
+        <v>6.072000026702881</v>
       </c>
       <c r="I2" t="n">
-        <v>3.145695384105755</v>
+        <v>3.129117245791099</v>
       </c>
       <c r="J2" t="n">
         <v>104</v>
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>19.79999923706055</v>
+        <v>19.70000076293945</v>
       </c>
       <c r="I3" t="n">
-        <v>3.787878933834458</v>
+        <v>3.807106451543568</v>
       </c>
       <c r="J3" t="n">
         <v>90</v>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>23.81500053405762</v>
+        <v>23.48999977111816</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3779130715168023</v>
+        <v>0.3831417661853636</v>
       </c>
       <c r="J4" t="n">
         <v>48</v>
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>58.25</v>
+        <v>58.09999847412109</v>
       </c>
       <c r="I5" t="n">
-        <v>1.11587982832618</v>
+        <v>1.118760786696962</v>
       </c>
       <c r="J5" t="n">
         <v>20</v>
@@ -763,10 +763,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.2370000034570694</v>
+        <v>0.2290000021457672</v>
       </c>
       <c r="I7" t="n">
-        <v>25.3164553269167</v>
+        <v>26.20087311693898</v>
       </c>
       <c r="J7" t="n">
         <v>-1</v>
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9.352999687194824</v>
+        <v>9.409999847412109</v>
       </c>
       <c r="I8" t="n">
-        <v>2.459104113035443</v>
+        <v>2.444208328688267</v>
       </c>
       <c r="J8" t="n">
         <v>-15</v>
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5.788000106811523</v>
+        <v>5.796000003814697</v>
       </c>
       <c r="I9" t="n">
-        <v>2.087076671920553</v>
+        <v>2.084195995867741</v>
       </c>
       <c r="J9" t="n">
         <v>-15</v>
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>25.10000038146973</v>
+        <v>24.89999961853027</v>
       </c>
       <c r="I10" t="n">
-        <v>2.868525852818495</v>
+        <v>2.891566309359237</v>
       </c>
       <c r="J10" t="n">
         <v>-25</v>
@@ -2417,7 +2417,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SAIPEM S.p.A.</t>
+          <t>Leonardo S.p.A.</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2434,7 +2434,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Leonardo S.p.A.</t>
+          <t>Industrie De Nora S.p.A.</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2451,7 +2451,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Industrie De Nora S.p.A.</t>
+          <t>SAIPEM S.p.A.</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2468,7 +2468,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Farmacosmo S.p.A.</t>
+          <t>Ferretti S.p.A.</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2478,14 +2478,14 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Ferretti S.p.A.</t>
+          <t>Farmacosmo S.p.A.</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>doValue S.p.A.</t>
+          <t>Poste Italiane S.p.A.</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2648,14 +2648,14 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Prysmian S.p.A.</t>
+          <t>Stellantis N.V.</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2665,14 +2665,14 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Pozzi Milano S.p.A.</t>
+          <t>Stellantis N.V.</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2682,14 +2682,14 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Poste Italiane S.p.A.</t>
+          <t>doValue S.p.A.</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2699,14 +2699,14 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>JUVENTUS F.C. S.p.A.</t>
+          <t>Prysmian S.p.A.</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2716,14 +2716,14 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Half Year Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>OSAI Automation System S.p.A.</t>
+          <t>Pozzi Milano S.p.A.</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2733,14 +2733,14 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Annual General Meeting</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>IGD SIIQ S.p.A.</t>
+          <t>OSAI Automation System S.p.A.</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2750,14 +2750,14 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual General Meeting</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>I.CO.P. S.p.A. Società Benefit</t>
+          <t>JUVENTUS F.C. S.p.A.</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2767,14 +2767,14 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Half Year Report</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>Intesa Sanpaolo S.p.A.</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2784,14 +2784,14 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Eni S.p.A.</t>
+          <t>IGD SIIQ S.p.A.</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2801,14 +2801,14 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Dedem S.p.A.</t>
+          <t>I.CO.P. S.p.A. Società Benefit</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2825,7 +2825,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Stellantis N.V.</t>
+          <t>Dedem S.p.A.</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2835,14 +2835,14 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Intesa Sanpaolo S.p.A.</t>
+          <t>Eni S.p.A.</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2852,14 +2852,14 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Stellantis N.V.</t>
+          <t>Esprinet S.p.A.</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2869,14 +2869,14 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Reti S.p.A.</t>
+          <t>I GRANDI VIAGGI S.p.A.</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2886,14 +2886,14 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual General Meeting</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Renovalo S.p.A.</t>
+          <t>OSAI Automation System S.p.A.</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2903,14 +2903,14 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Annual General Meeting</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>OSAI Automation System S.p.A.</t>
+          <t>Renovalo S.p.A.</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2920,14 +2920,14 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Annual General Meeting</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>I GRANDI VIAGGI S.p.A.</t>
+          <t>Autostrade Meridionali S.p.A.</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2937,14 +2937,14 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Annual General Meeting</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Autostrade Meridionali S.p.A.</t>
+          <t>SOGEFI S.p.A.</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -2978,7 +2978,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>SOGEFI S.p.A.</t>
+          <t>Reti S.p.A.</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3012,7 +3012,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Anima Holding S.p.A.</t>
+          <t>Lottomatica Group S.p.A.</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3029,7 +3029,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Lottomatica Group S.p.A.</t>
+          <t>Anima Holding S.p.A.</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3046,7 +3046,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Lottomatica Group S.p.A.</t>
+          <t>Banco BPM S.p.A.</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3056,14 +3056,14 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Kruso Kapital S.p.A.</t>
+          <t>Ariston Holding N.V.</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3073,14 +3073,14 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>FinecoBank S.p.A.</t>
+          <t>Ariston Holding N.V.</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3097,7 +3097,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Italgas S.p.A.</t>
+          <t>Kruso Kapital S.p.A.</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3114,7 +3114,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Ariston Holding N.V.</t>
+          <t>FinecoBank S.p.A.</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3124,14 +3124,14 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Ariston Holding N.V.</t>
+          <t>Lottomatica Group S.p.A.</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3141,14 +3141,14 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Banco BPM S.p.A.</t>
+          <t>Italgas S.p.A.</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3165,7 +3165,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Italgas S.p.A.</t>
+          <t>Snam S.p.A.</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3175,14 +3175,14 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Snam S.p.A.</t>
+          <t>Nexi S.p.A.</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3199,7 +3199,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Nexi S.p.A.</t>
+          <t>Masi Agricola S.p.A.</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3216,7 +3216,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Masi Agricola S.p.A.</t>
+          <t>MAIRE S.p.A.</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -3226,14 +3226,14 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>MAIRE S.p.A.</t>
+          <t>AMPLIFON S.p.A.</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -3250,7 +3250,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>MAIRE S.p.A.</t>
+          <t>Italgas S.p.A.</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3284,7 +3284,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>FinecoBank S.p.A.</t>
+          <t>INTERCOS S.p.A.</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3301,7 +3301,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Davide Campari-Milano N.V.</t>
+          <t>FinecoBank S.p.A.</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -3311,7 +3311,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -3328,14 +3328,14 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>AMPLIFON S.p.A.</t>
+          <t>Davide Campari-Milano N.V.</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -3352,7 +3352,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>AMPLIFON S.p.A.</t>
+          <t>Banca Generali S.p.A.</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3369,7 +3369,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>INTERCOS S.p.A.</t>
+          <t>AMPLIFON S.p.A.</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3386,7 +3386,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Banca Generali S.p.A.</t>
+          <t>MAIRE S.p.A.</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3403,7 +3403,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ASCOPIAVE S.p.A.</t>
+          <t>EUROCOMMERCIAL PROPERTIES N.V.</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3413,14 +3413,14 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ASCOPIAVE S.p.A.</t>
+          <t>AZIMUT HOLDING S.p.A.</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3437,7 +3437,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ITALMOBILIARE S.p.A.</t>
+          <t>ASCOPIAVE S.p.A.</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3447,14 +3447,14 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Tinexta S.p.A.</t>
+          <t>ASCOPIAVE S.p.A.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3471,7 +3471,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Snam S.p.A.</t>
+          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3481,14 +3481,14 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>PIAGGIO &amp; C. S.p.A.</t>
+          <t>Snam S.p.A.</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3522,7 +3522,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Nexi S.p.A.</t>
+          <t>PIAGGIO &amp; C. S.p.A.</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3539,7 +3539,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
+          <t>Tinexta S.p.A.</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3573,7 +3573,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>EUROCOMMERCIAL PROPERTIES N.V.</t>
+          <t>Nexi S.p.A.</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -3583,14 +3583,14 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>AZIMUT HOLDING S.p.A.</t>
+          <t>ITALMOBILIARE S.p.A.</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
